--- a/docs/dududb数据库设计.xlsx
+++ b/docs/dududb数据库设计.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="182">
   <si>
     <t>1、本文档中所有工作表名均为无前缀表名，使用中请根据实际情况加入表前缀
 2、目前dududache使用dudu_表前缀</t>
@@ -361,10 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>性别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -765,15 +761,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0男1女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu('M','F')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M男F女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1306,13 +1302,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
         <v>120</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
@@ -1329,16 +1325,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
       </c>
       <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
         <v>125</v>
-      </c>
-      <c r="G3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1346,16 +1342,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1363,13 +1359,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
       </c>
       <c r="E5" t="s">
         <v>52</v>
@@ -1428,13 +1424,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
@@ -1451,13 +1447,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1465,13 +1461,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -1488,7 +1484,7 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
         <v>52</v>
@@ -1497,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1550,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -1567,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1585,14 +1581,14 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="6" width="18.875" customWidth="1"/>
@@ -1665,7 +1661,7 @@
         <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1673,19 +1669,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1710,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -1724,19 +1720,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
         <v>180</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>181</v>
@@ -1747,19 +1740,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1767,13 +1760,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>69</v>
@@ -1784,13 +1777,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" customHeight="1">
@@ -1798,13 +1791,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1812,13 +1805,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1826,13 +1819,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="81">
@@ -1840,13 +1833,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>69</v>
@@ -1855,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1866,13 +1859,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1881,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1928,13 +1921,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>69</v>
@@ -1966,7 +1959,7 @@
         <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1974,19 +1967,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2011,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -2026,19 +2019,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>181</v>
@@ -2049,20 +2039,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2070,20 +2060,20 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1">
@@ -2091,20 +2081,20 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
         <v>110</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1">
@@ -2112,20 +2102,20 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2133,19 +2123,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2153,13 +2143,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>69</v>
@@ -2170,13 +2160,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -2185,13 +2175,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -2200,13 +2190,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -2215,13 +2205,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -2230,13 +2220,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>69</v>
@@ -2245,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2253,16 +2243,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C19" t="s">
+      <c r="G19" t="s">
         <v>118</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2479,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
@@ -2637,7 +2627,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -3146,10 +3136,10 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3157,13 +3147,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
         <v>138</v>
-      </c>
-      <c r="D3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3171,13 +3161,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3185,13 +3175,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3199,13 +3189,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3264,7 +3254,7 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -3275,13 +3265,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
         <v>138</v>
-      </c>
-      <c r="D3" t="s">
-        <v>139</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -3292,13 +3282,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3306,13 +3296,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3320,13 +3310,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
         <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3334,13 +3324,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -3351,13 +3341,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3365,13 +3355,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3379,13 +3369,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3434,7 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -3455,16 +3445,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
         <v>158</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>159</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3535,13 +3525,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>64</v>
@@ -3552,16 +3542,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
         <v>163</v>
       </c>
-      <c r="C4" t="s">
-        <v>164</v>
-      </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
